--- a/fuentes/contenidos/grado08/guion05/SolicitudGrafica_CN_08_05_REC270.xlsx
+++ b/fuentes/contenidos/grado08/guion05/SolicitudGrafica_CN_08_05_REC270.xlsx
@@ -505,9 +505,6 @@
     <t>Recurso número 10 (para el Cuaderno de Estudio no se escribe nada)</t>
   </si>
   <si>
-    <t>CN_08_05_REC220</t>
-  </si>
-  <si>
     <t>La reproducción humana y la sexualidad</t>
   </si>
   <si>
@@ -575,6 +572,9 @@
   </si>
   <si>
     <t>Circulo verde sobre fondo azul</t>
+  </si>
+  <si>
+    <t>CN_08_05_REC270</t>
   </si>
 </sst>
 </file>
@@ -602,11 +602,13 @@
     <font>
       <sz val="10"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -628,16 +630,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1491,6 +1496,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1574,24 +1597,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -2344,7 +2349,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2382,14 +2387,14 @@
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="F2" s="77" t="s">
+      <c r="D2" s="91"/>
+      <c r="F2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="78"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
       <c r="J2" s="16"/>
@@ -2399,14 +2404,14 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="86">
+      <c r="C3" s="92">
         <v>8</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="F3" s="79">
+      <c r="D3" s="93"/>
+      <c r="F3" s="85">
         <v>42100</v>
       </c>
-      <c r="G3" s="80"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="53"/>
       <c r="I3" s="53"/>
       <c r="J3" s="16"/>
@@ -2416,10 +2421,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="87"/>
+      <c r="C4" s="92" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="93"/>
       <c r="E4" s="5"/>
       <c r="F4" s="52" t="s">
         <v>55</v>
@@ -2437,10 +2442,10 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="89"/>
+      <c r="C5" s="94" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="95"/>
       <c r="E5" s="5"/>
       <c r="F5" s="50" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2473,7 +2478,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="D7" s="36" t="s">
         <v>39</v>
@@ -2491,12 +2496,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="83"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="89"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2545,7 +2550,7 @@
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
-      <c r="B10" s="108">
+      <c r="B10" s="77">
         <v>130092992</v>
       </c>
       <c r="C10" s="27" t="str">
@@ -2553,14 +2558,14 @@
         <v>Recurso M5A</v>
       </c>
       <c r="D10" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>149</v>
       </c>
       <c r="F10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_08_05_REC220_IMG01n.png</v>
+        <v>CN_08_05_REC270_IMG01n.png</v>
       </c>
       <c r="G10" s="14" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2568,14 +2573,14 @@
       </c>
       <c r="H10" s="14" t="str">
         <f>IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CN_08_05_REC220_IMG01a.png</v>
+        <v>CN_08_05_REC270_IMG01a.png</v>
       </c>
       <c r="I10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J10" s="109" t="s">
-        <v>150</v>
+      <c r="J10" s="78" t="s">
+        <v>149</v>
       </c>
       <c r="K10" s="19"/>
     </row>
@@ -2584,7 +2589,7 @@
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
-      <c r="B11" s="108">
+      <c r="B11" s="77">
         <v>82183657</v>
       </c>
       <c r="C11" s="27" t="str">
@@ -2592,14 +2597,14 @@
         <v>Recurso M5A</v>
       </c>
       <c r="D11" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>149</v>
       </c>
       <c r="F11" s="14" t="str">
         <f t="shared" ref="F11:F74" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_08_05_REC220_IMG02n.png</v>
+        <v>CN_08_05_REC270_IMG02n.png</v>
       </c>
       <c r="G11" s="14" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2607,14 +2612,14 @@
       </c>
       <c r="H11" s="14" t="str">
         <f t="shared" ref="H11:H74" si="2">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CN_08_05_REC220_IMG02a.png</v>
+        <v>CN_08_05_REC270_IMG02a.png</v>
       </c>
       <c r="I11" s="14" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J11" s="110" t="s">
-        <v>151</v>
+      <c r="J11" s="79" t="s">
+        <v>150</v>
       </c>
       <c r="K11" s="15"/>
     </row>
@@ -2623,22 +2628,22 @@
         <f t="shared" ref="A12:A30" si="3">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE(LEFT(A11,3),IF(MID(A11,4,2)+1&lt;10,CONCATENATE("0",MID(A11,4,2)+1))),"")</f>
         <v>IMG03</v>
       </c>
-      <c r="B12" s="111" t="s">
-        <v>152</v>
+      <c r="B12" s="80" t="s">
+        <v>151</v>
       </c>
       <c r="C12" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
       <c r="D12" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>149</v>
       </c>
       <c r="F12" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_05_REC220_IMG03n.png</v>
+        <v>CN_08_05_REC270_IMG03n.png</v>
       </c>
       <c r="G12" s="14" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2646,17 +2651,17 @@
       </c>
       <c r="H12" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_05_REC220_IMG03a.png</v>
+        <v>CN_08_05_REC270_IMG03a.png</v>
       </c>
       <c r="I12" s="14" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J12" s="110" t="s">
-        <v>153</v>
-      </c>
-      <c r="K12" s="110" t="s">
-        <v>158</v>
+      <c r="J12" s="79" t="s">
+        <v>152</v>
+      </c>
+      <c r="K12" s="79" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -2664,22 +2669,22 @@
         <f t="shared" si="3"/>
         <v>IMG04</v>
       </c>
-      <c r="B13" s="111" t="s">
-        <v>154</v>
+      <c r="B13" s="80" t="s">
+        <v>153</v>
       </c>
       <c r="C13" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
       <c r="D13" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>149</v>
       </c>
       <c r="F13" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_05_REC220_IMG04n.png</v>
+        <v>CN_08_05_REC270_IMG04n.png</v>
       </c>
       <c r="G13" s="14" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2687,14 +2692,14 @@
       </c>
       <c r="H13" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_05_REC220_IMG04a.png</v>
+        <v>CN_08_05_REC270_IMG04a.png</v>
       </c>
       <c r="I13" s="14" t="str">
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J13" s="110" t="s">
-        <v>155</v>
+      <c r="J13" s="79" t="s">
+        <v>154</v>
       </c>
       <c r="K13" s="19"/>
     </row>
@@ -2703,22 +2708,22 @@
         <f t="shared" si="3"/>
         <v>IMG05</v>
       </c>
-      <c r="B14" s="111" t="s">
-        <v>156</v>
+      <c r="B14" s="80" t="s">
+        <v>155</v>
       </c>
       <c r="C14" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
       <c r="D14" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>149</v>
       </c>
       <c r="F14" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_05_REC220_IMG05n.png</v>
+        <v>CN_08_05_REC270_IMG05n.png</v>
       </c>
       <c r="G14" s="14" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2726,14 +2731,14 @@
       </c>
       <c r="H14" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_05_REC220_IMG05a.png</v>
+        <v>CN_08_05_REC270_IMG05a.png</v>
       </c>
       <c r="I14" s="14" t="str">
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J14" s="110" t="s">
-        <v>157</v>
+      <c r="J14" s="79" t="s">
+        <v>156</v>
       </c>
       <c r="K14" s="19"/>
     </row>
@@ -2742,22 +2747,22 @@
         <f t="shared" si="3"/>
         <v>IMG06</v>
       </c>
-      <c r="B15" s="111" t="s">
-        <v>159</v>
+      <c r="B15" s="80" t="s">
+        <v>158</v>
       </c>
       <c r="C15" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
       <c r="D15" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>149</v>
       </c>
       <c r="F15" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_05_REC220_IMG06n.png</v>
+        <v>CN_08_05_REC270_IMG06n.png</v>
       </c>
       <c r="G15" s="14" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2765,14 +2770,14 @@
       </c>
       <c r="H15" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_05_REC220_IMG06a.png</v>
+        <v>CN_08_05_REC270_IMG06a.png</v>
       </c>
       <c r="I15" s="14" t="str">
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J15" s="112" t="s">
-        <v>160</v>
+      <c r="J15" s="81" t="s">
+        <v>159</v>
       </c>
       <c r="K15" s="21"/>
     </row>
@@ -2781,22 +2786,22 @@
         <f t="shared" si="3"/>
         <v>IMG07</v>
       </c>
-      <c r="B16" s="111" t="s">
-        <v>161</v>
+      <c r="B16" s="80" t="s">
+        <v>160</v>
       </c>
       <c r="C16" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
       <c r="D16" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>149</v>
       </c>
       <c r="F16" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_05_REC220_IMG07n.png</v>
+        <v>CN_08_05_REC270_IMG07n.png</v>
       </c>
       <c r="G16" s="14" t="str">
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2804,14 +2809,14 @@
       </c>
       <c r="H16" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_05_REC220_IMG07a.png</v>
+        <v>CN_08_05_REC270_IMG07a.png</v>
       </c>
       <c r="I16" s="14" t="str">
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J16" s="113" t="s">
-        <v>162</v>
+      <c r="J16" s="82" t="s">
+        <v>161</v>
       </c>
       <c r="K16" s="34"/>
     </row>
@@ -2820,22 +2825,22 @@
         <f t="shared" si="3"/>
         <v>IMG08</v>
       </c>
-      <c r="B17" s="111" t="s">
-        <v>163</v>
+      <c r="B17" s="80" t="s">
+        <v>162</v>
       </c>
       <c r="C17" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
       <c r="D17" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>149</v>
       </c>
       <c r="F17" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_05_REC220_IMG08n.png</v>
+        <v>CN_08_05_REC270_IMG08n.png</v>
       </c>
       <c r="G17" s="14" t="str">
         <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2843,14 +2848,14 @@
       </c>
       <c r="H17" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_05_REC220_IMG08a.png</v>
+        <v>CN_08_05_REC270_IMG08a.png</v>
       </c>
       <c r="I17" s="14" t="str">
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J17" s="112" t="s">
-        <v>164</v>
+      <c r="J17" s="81" t="s">
+        <v>163</v>
       </c>
       <c r="K17" s="21"/>
     </row>
@@ -2859,22 +2864,22 @@
         <f t="shared" si="3"/>
         <v>IMG09</v>
       </c>
-      <c r="B18" s="111" t="s">
-        <v>165</v>
+      <c r="B18" s="80" t="s">
+        <v>164</v>
       </c>
       <c r="C18" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
       <c r="D18" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>149</v>
       </c>
       <c r="F18" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_05_REC220_IMG09n.png</v>
+        <v>CN_08_05_REC270_IMG09n.png</v>
       </c>
       <c r="G18" s="14" t="str">
         <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2882,14 +2887,14 @@
       </c>
       <c r="H18" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_05_REC220_IMG09a.png</v>
+        <v>CN_08_05_REC270_IMG09a.png</v>
       </c>
       <c r="I18" s="14" t="str">
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J18" s="112" t="s">
-        <v>166</v>
+      <c r="J18" s="81" t="s">
+        <v>165</v>
       </c>
       <c r="K18" s="21"/>
     </row>
@@ -2898,22 +2903,22 @@
         <f t="shared" si="3"/>
         <v>IMGFALSO</v>
       </c>
-      <c r="B19" s="111" t="s">
-        <v>167</v>
+      <c r="B19" s="80" t="s">
+        <v>166</v>
       </c>
       <c r="C19" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
       <c r="D19" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>149</v>
       </c>
       <c r="F19" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_05_REC220_IMGFALSOn.png</v>
+        <v>CN_08_05_REC270_IMGFALSOn.png</v>
       </c>
       <c r="G19" s="14" t="str">
         <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2921,14 +2926,14 @@
       </c>
       <c r="H19" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_05_REC220_IMGFALSOa.png</v>
+        <v>CN_08_05_REC270_IMGFALSOa.png</v>
       </c>
       <c r="I19" s="14" t="str">
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J19" s="113" t="s">
-        <v>168</v>
+      <c r="J19" s="82" t="s">
+        <v>167</v>
       </c>
       <c r="K19" s="34"/>
     </row>
@@ -5281,25 +5286,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="94"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="44"/>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103"/>
       <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -5307,11 +5312,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="45"/>
       <c r="H3" s="35" t="s">
         <v>18</v>
@@ -5362,11 +5367,11 @@
       <c r="C5" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="104" t="str">
+      <c r="D5" s="110" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="105"/>
+      <c r="E5" s="111"/>
       <c r="F5" s="45"/>
       <c r="H5" s="35" t="s">
         <v>22</v>
@@ -5411,12 +5416,12 @@
       <c r="C7" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="90" t="str">
+      <c r="D7" s="96" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="91"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
       <c r="H7" s="35" t="s">
         <v>24</v>
       </c>
@@ -5510,14 +5515,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="100"/>
       <c r="I13" s="35" t="s">
         <v>33</v>
       </c>
@@ -5550,12 +5555,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="44"/>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="103"/>
       <c r="J15" s="35">
         <v>12</v>
       </c>
@@ -5595,12 +5600,12 @@
       <c r="C17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="98" t="str">
+      <c r="D17" s="104" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="100"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="106"/>
       <c r="J17" s="35">
         <v>14</v>
       </c>
@@ -5616,12 +5621,12 @@
       <c r="C18" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="90" t="str">
+      <c r="D18" s="96" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="91"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="97"/>
       <c r="J18" s="35">
         <v>15</v>
       </c>
@@ -6013,41 +6018,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="E1" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="106" t="s">
+      <c r="F1" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
       <c r="H2" s="54" t="s">
         <v>65</v>
       </c>
